--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -530,7 +530,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$18" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="D8" s="9">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="D9" s="24">
         <f>K39</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2644,15 +2644,15 @@
       <c r="E18" s="8"/>
       <c r="F18" s="7" t="str">
         <f t="shared" ref="F18:F35" si="0">IF(J18,"Done","To Be Done")</f>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G18" s="19"/>
       <c r="J18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <f>IF(J18=TRUE,D18,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
@@ -3138,7 +3138,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Status</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>[14 points minimum]</t>
+  </si>
+  <si>
+    <t>look for audio and music and finish 15-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draw in 2D assets with Halloween theme </t>
+  </si>
+  <si>
+    <t>create texture for particle finish 6-9 and 12-13</t>
+  </si>
+  <si>
+    <t>Create new assets in blender</t>
+  </si>
+  <si>
+    <t>Create new assets in blender finish 8-10</t>
   </si>
 </sst>
 </file>
@@ -454,15 +469,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$23" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$24" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -534,11 +549,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$19" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$19" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$20" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,7 +561,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$22" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$22" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,7 +2435,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2492,7 +2507,7 @@
       </c>
       <c r="D8" s="9">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2501,7 +2516,7 @@
       </c>
       <c r="D9" s="24">
         <f>K39</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2668,15 +2683,15 @@
       <c r="E19" s="8"/>
       <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G19" s="19"/>
       <c r="J19" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ref="K19:K38" si="1">IF(J19=TRUE,D19,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
@@ -2692,15 +2707,17 @@
       <c r="E20" s="8"/>
       <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G20" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
@@ -2740,15 +2757,17 @@
       <c r="E22" s="8"/>
       <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G22" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>36</v>
+      </c>
       <c r="J22" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
@@ -2764,15 +2783,17 @@
       <c r="E23" s="8"/>
       <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G23" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>38</v>
+      </c>
       <c r="J23" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
@@ -2788,15 +2809,17 @@
       <c r="E24" s="8"/>
       <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G24" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -2812,15 +2835,17 @@
       <c r="E25" s="8"/>
       <c r="F25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G25" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>39</v>
+      </c>
       <c r="J25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -3138,7 +3163,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Status</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Create new assets in blender finish 8-10</t>
+  </si>
+  <si>
+    <t>finish Set up</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2434,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2507,7 +2510,7 @@
       </c>
       <c r="D8" s="9">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2516,7 +2519,7 @@
       </c>
       <c r="D9" s="24">
         <f>K39</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3077,15 +3080,17 @@
       <c r="E35" s="8"/>
       <c r="F35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G35" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>41</v>
+      </c>
       <c r="J35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -3163,7 +3168,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgalindez1\Workspace\AGA206\Roll-A-Ball\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claye\Documents\GitHub\Roll-A-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B3E14D-CB59-4D47-8E2F-9575CDF84898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>Status</t>
   </si>
@@ -140,22 +152,28 @@
     <t xml:space="preserve">Draw in 2D assets with Halloween theme </t>
   </si>
   <si>
-    <t>create texture for particle finish 6-9 and 12-13</t>
-  </si>
-  <si>
-    <t>Create new assets in blender</t>
-  </si>
-  <si>
-    <t>Create new assets in blender finish 8-10</t>
-  </si>
-  <si>
-    <t>finish Set up</t>
+    <t xml:space="preserve"> finish 8-10</t>
+  </si>
+  <si>
+    <t>Visual Novel Dialogue Script</t>
+  </si>
+  <si>
+    <t>Character sprites script</t>
+  </si>
+  <si>
+    <t>Branching endings  script one good and bad ending</t>
+  </si>
+  <si>
+    <t>Claudia Galindez  305348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secret level story mode art and assets </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -308,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,7 +339,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,22 +349,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -362,22 +376,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -402,18 +407,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <strike/>
@@ -436,21 +430,12 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <b/>
+        <i val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -480,7 +465,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$25" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$25" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
@@ -528,15 +513,15 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$36" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$36" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,15 +559,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -590,6 +575,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -638,15 +626,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -654,6 +642,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -702,15 +693,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -718,6 +709,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -766,15 +760,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -782,6 +776,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -830,13 +827,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -846,6 +843,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -894,13 +894,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -910,6 +910,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -958,13 +961,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -974,6 +977,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1022,15 +1028,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1038,6 +1044,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1086,15 +1095,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1102,6 +1111,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1150,13 +1162,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1166,6 +1178,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1214,13 +1229,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1230,6 +1245,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1278,15 +1296,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>22860</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1294,6 +1312,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1342,13 +1363,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1358,6 +1379,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1406,13 +1430,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1422,6 +1446,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1470,13 +1497,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1486,6 +1513,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1534,13 +1564,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1550,6 +1580,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1598,13 +1631,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>30</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1614,6 +1647,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1662,13 +1698,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1678,6 +1714,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1726,13 +1765,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1742,6 +1781,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1790,13 +1832,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1806,6 +1848,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1854,15 +1899,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1870,6 +1915,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1918,13 +1966,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1934,6 +1982,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1982,13 +2033,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>36</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -1998,6 +2049,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2046,13 +2100,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>37</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2062,6 +2116,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2110,13 +2167,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>198120</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>476250</xdr:colOff>
+          <xdr:colOff>480060</xdr:colOff>
           <xdr:row>38</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
@@ -2126,6 +2183,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2434,237 +2494,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="23" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="50.25" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="50.26953125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" style="2" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.125" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" style="2" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
+      <c r="D4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C6" s="2"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <f>COUNTIFS(J12:J15,TRUE)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C9" s="8" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="8">
         <f>K39</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="16" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="7">
+    <row r="12" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>0</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7" t="str">
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="str">
         <f>IF(J12,"Done","To Be Done")</f>
         <v>Done</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="17"/>
       <c r="J12" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="7">
+    <row r="13" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>2</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>0</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7" t="str">
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="str">
         <f>IF(J13,"Done","To Be Done")</f>
         <v>Done</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="17"/>
       <c r="J13" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="7">
+    <row r="14" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>3</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>0</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="7" t="str">
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="str">
         <f>IF(J14,"Done","To Be Done")</f>
         <v>Done</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="17"/>
       <c r="J14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7">
+    <row r="15" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>0</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="7" t="str">
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="str">
         <f>IF(J15,"Done","To Be Done")</f>
         <v>Done</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="17"/>
       <c r="J15" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="26"/>
-      <c r="J16" s="6"/>
+    <row r="16" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="7">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
         <v>5</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>2</v>
       </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7" t="str">
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="str">
         <f t="shared" ref="F18:F35" si="0">IF(J18,"Done","To Be Done")</f>
         <v>Done</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="17"/>
       <c r="J18" s="5" t="b">
         <v>1</v>
       </c>
@@ -2673,22 +2730,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="7">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
         <v>6</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>2</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7" t="str">
+      <c r="E19" s="7"/>
+      <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="17"/>
       <c r="J19" s="5" t="b">
         <v>1</v>
       </c>
@@ -2697,22 +2754,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="7">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>2</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7" t="str">
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="17" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="5" t="b">
@@ -2723,22 +2780,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="7">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="6">
         <v>8</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>2</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7" t="str">
+      <c r="E21" s="7"/>
+      <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="17"/>
       <c r="J21" s="5" t="b">
         <v>0</v>
       </c>
@@ -2747,22 +2804,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="7">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="6">
         <v>9</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>1</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7" t="str">
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="17" t="s">
         <v>36</v>
       </c>
       <c r="J22" s="5" t="b">
@@ -2773,24 +2830,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="7">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
         <v>10</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>1</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7" t="str">
+      <c r="E23" s="7"/>
+      <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="G23" s="17"/>
       <c r="J23" s="5" t="b">
         <v>1</v>
       </c>
@@ -2799,23 +2854,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="7">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
         <v>11</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>1</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7" t="str">
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>40</v>
+      <c r="G24" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="J24" s="5" t="b">
         <v>1</v>
@@ -2825,48 +2880,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="7">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
         <v>12</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>1</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7" t="str">
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>Done</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>39</v>
-      </c>
+        <v>To Be Done</v>
+      </c>
+      <c r="G25" s="17"/>
       <c r="J25" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>13</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="7">
-        <v>13</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="21">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7" t="str">
+      <c r="E26" s="7"/>
+      <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="17"/>
       <c r="J26" s="5" t="b">
         <v>0</v>
       </c>
@@ -2875,22 +2928,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="7">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
         <v>14</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="19">
         <v>1</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7" t="str">
+      <c r="E27" s="7"/>
+      <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="17"/>
       <c r="J27" s="5" t="b">
         <v>0</v>
       </c>
@@ -2899,22 +2952,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="7">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="6">
         <v>15</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="19">
         <v>1</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7" t="str">
+      <c r="E28" s="7"/>
+      <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="17"/>
       <c r="J28" s="5" t="b">
         <v>0</v>
       </c>
@@ -2923,22 +2976,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="7">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="6">
         <v>16</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>1</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7" t="str">
+      <c r="E29" s="7"/>
+      <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="17"/>
       <c r="J29" s="5" t="b">
         <v>0</v>
       </c>
@@ -2947,22 +3000,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="7">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
         <v>17</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="19">
         <v>1</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7" t="str">
+      <c r="E30" s="7"/>
+      <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G30" s="19"/>
+      <c r="G30" s="17"/>
       <c r="J30" s="5" t="b">
         <v>0</v>
       </c>
@@ -2971,22 +3024,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="7">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
         <v>18</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="19">
         <v>1</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7" t="str">
+      <c r="E31" s="7"/>
+      <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G31" s="19"/>
+      <c r="G31" s="17"/>
       <c r="J31" s="5" t="b">
         <v>0</v>
       </c>
@@ -2995,22 +3048,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="7">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="6">
         <v>19</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="19">
         <v>1</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="7" t="str">
+      <c r="E32" s="7"/>
+      <c r="F32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="17"/>
       <c r="J32" s="5" t="b">
         <v>0</v>
       </c>
@@ -3019,22 +3072,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="7">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B33" s="6">
         <v>20</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="19">
         <v>1</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="7" t="str">
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="17"/>
       <c r="J33" s="5" t="b">
         <v>0</v>
       </c>
@@ -3043,22 +3096,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="7">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B34" s="6">
         <v>21</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C34" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="19">
         <v>2</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="7" t="str">
+      <c r="E34" s="7"/>
+      <c r="F34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>To Be Done</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="17"/>
       <c r="J34" s="5" t="b">
         <v>0</v>
       </c>
@@ -3067,23 +3120,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="7">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B35" s="6">
         <v>22</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="19">
         <v>2</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="7" t="str">
+      <c r="E35" s="7"/>
+      <c r="F35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G35" s="19" t="s">
-        <v>41</v>
+      <c r="G35" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="J35" s="5" t="b">
         <v>1</v>
@@ -3093,82 +3146,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="7">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="6">
         <v>23</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="21">
+      <c r="D36" s="19">
         <v>2</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7" t="str">
+      <c r="E36" s="7"/>
+      <c r="F36" s="6" t="str">
         <f t="shared" ref="F36:F38" si="2">IF(J36,"Done","To Be Done")</f>
-        <v>To Be Done</v>
-      </c>
-      <c r="G36" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J36" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="7">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B37" s="6">
         <v>24</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37" s="19">
         <v>1</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="7" t="str">
+      <c r="E37" s="7"/>
+      <c r="F37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G37" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G37" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="7">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
         <v>25</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38" s="19">
         <v>1</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7" t="str">
+      <c r="E38" s="7"/>
+      <c r="F38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>To Be Done</v>
-      </c>
-      <c r="G38" s="19"/>
+        <v>Done</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J38" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3176,29 +3235,19 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D4:G4"/>
   </mergeCells>
-  <conditionalFormatting sqref="F22:F23 F26:F29 F12:F16 F34:F38">
-    <cfRule type="expression" dxfId="4" priority="10">
+  <conditionalFormatting sqref="D9">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThanOrEqual">
+      <formula>14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F16">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>$F12="Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F21">
-    <cfRule type="expression" dxfId="3" priority="8">
+  <conditionalFormatting sqref="F18:F38">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>$F18="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F25">
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$F24="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F30:F33">
-    <cfRule type="expression" dxfId="1" priority="6">
-      <formula>$F30="Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
-      <formula>14</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3215,15 +3264,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3237,15 +3286,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>175260</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3259,15 +3308,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>175260</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3281,15 +3330,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>171450</xdr:rowOff>
+                    <xdr:rowOff>175260</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>7620</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3303,13 +3352,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3325,13 +3374,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>19</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3347,13 +3396,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3369,15 +3418,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3391,15 +3440,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3413,13 +3462,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3435,13 +3484,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>24</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3457,15 +3506,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>22860</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3479,13 +3528,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>26</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3501,13 +3550,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3523,13 +3572,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>28</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3545,13 +3594,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>29</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3567,13 +3616,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>30</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3589,13 +3638,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>31</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3611,13 +3660,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>32</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3633,13 +3682,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>33</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3655,15 +3704,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>47625</xdr:rowOff>
+                    <xdr:rowOff>45720</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3677,13 +3726,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>35</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3699,13 +3748,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>36</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3721,13 +3770,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>37</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>
@@ -3743,13 +3792,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:colOff>198120</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>142875</xdr:rowOff>
+                    <xdr:rowOff>144780</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>476250</xdr:colOff>
+                    <xdr:colOff>480060</xdr:colOff>
                     <xdr:row>38</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </to>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claye\Documents\GitHub\Roll-A-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B3E14D-CB59-4D47-8E2F-9575CDF84898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45ED7CA-0CF9-4F06-B350-078B359F9DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="1212" windowWidth="12204" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Status</t>
   </si>
@@ -158,16 +158,13 @@
     <t>Visual Novel Dialogue Script</t>
   </si>
   <si>
-    <t>Character sprites script</t>
-  </si>
-  <si>
     <t>Branching endings  script one good and bad ending</t>
   </si>
   <si>
     <t>Claudia Galindez  305348</t>
   </si>
   <si>
-    <t xml:space="preserve">Secret level story mode art and assets </t>
+    <t xml:space="preserve">audio setting menu </t>
   </si>
 </sst>
 </file>
@@ -521,7 +518,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$38" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$38" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2229,7 +2226,186 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>655140</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>655500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>105060</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03607076-1492-310B-9A4A-577B8AC325A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5920560" y="6543600"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03607076-1492-310B-9A4A-577B8AC325A4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5911560" y="6534600"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>655140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C5946-A4FE-499F-8B85-6317391BBC8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5920560" y="6543600"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C5946-A4FE-499F-8B85-6317391BBC8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5911560" y="6534600"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-08-30T15:05:56.316"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 3369,'0'0'4065</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-08-30T15:06:26.583"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 3369,'0'0'4065</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2497,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D23" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2534,7 +2710,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -2572,7 +2748,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
@@ -2581,7 +2757,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3188,7 +3364,7 @@
         <v>Done</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37" s="5" t="b">
         <v>1</v>
@@ -3211,23 +3387,21 @@
       <c r="E38" s="7"/>
       <c r="F38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Done</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>43</v>
-      </c>
+        <v>To Be Done</v>
+      </c>
+      <c r="G38" s="17"/>
       <c r="J38" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claye\Documents\GitHub\Roll-A-Ball\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45ED7CA-0CF9-4F06-B350-078B359F9DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32B11DB-2172-4438-8342-C412408B3580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="1212" windowWidth="12204" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Status</t>
   </si>
@@ -152,19 +152,16 @@
     <t xml:space="preserve">Draw in 2D assets with Halloween theme </t>
   </si>
   <si>
-    <t xml:space="preserve"> finish 8-10</t>
-  </si>
-  <si>
-    <t>Visual Novel Dialogue Script</t>
-  </si>
-  <si>
-    <t>Branching endings  script one good and bad ending</t>
-  </si>
-  <si>
     <t>Claudia Galindez  305348</t>
   </si>
   <si>
-    <t xml:space="preserve">audio setting menu </t>
+    <t>Simple Dialogue script</t>
+  </si>
+  <si>
+    <t>Secret level ending + move to next level script incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script done but unable to set it up </t>
   </si>
 </sst>
 </file>
@@ -478,7 +475,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$29" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$29" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,7 +511,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$37" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$37" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2239,14 +2236,14 @@
       <xdr:row>36</xdr:row>
       <xdr:rowOff>105060</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Ink 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03607076-1492-310B-9A4A-577B8AC325A4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2259,7 +2256,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Ink 1">
@@ -2299,14 +2296,14 @@
       <xdr:rowOff>104700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="360" cy="360"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="5" name="Ink 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C5946-A4FE-499F-8B85-6317391BBC8E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -2319,13 +2316,73 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="5" name="Ink 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59C5946-A4FE-499F-8B85-6317391BBC8E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5911560" y="6534600"/>
+              <a:ext cx="18000" cy="18000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>655140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360" cy="360"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F652CF3-7D7D-4A5D-AFB2-8398A2C4497C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5920560" y="6543600"/>
+            <a:ext cx="360" cy="360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03607076-1492-310B-9A4A-577B8AC325A4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2398,6 +2455,33 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2023-08-30T15:06:26.583"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 3369,'0'0'4065</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-09-01T16:43:52.984"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
@@ -2673,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D23" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D15" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2710,7 +2794,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -3021,7 +3105,9 @@
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="J23" s="5" t="b">
         <v>1</v>
       </c>
@@ -3045,9 +3131,7 @@
         <f t="shared" si="0"/>
         <v>Done</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>38</v>
-      </c>
+      <c r="G24" s="17"/>
       <c r="J24" s="5" t="b">
         <v>1</v>
       </c>
@@ -3165,15 +3249,15 @@
       <c r="E29" s="7"/>
       <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G29" s="17"/>
       <c r="J29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
@@ -3361,17 +3445,15 @@
       <c r="E37" s="7"/>
       <c r="F37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>Done</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>42</v>
-      </c>
+        <v>To Be Done</v>
+      </c>
+      <c r="G37" s="17"/>
       <c r="J37" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.3">
